--- a/xls/18.2.2023_data.xlsx
+++ b/xls/18.2.2023_data.xlsx
@@ -481,10 +481,10 @@
         <v>70000</v>
       </c>
       <c r="E2" t="n">
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="F2" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="G2" t="n">
         <v>140</v>
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="D3" t="n">
-        <v>135000</v>
+        <v>100000</v>
       </c>
       <c r="E3" t="n">
-        <v>172500</v>
+        <v>125000</v>
       </c>
       <c r="F3" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="G3" t="n">
-        <v>14.445</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         <v>2000</v>
       </c>
       <c r="D4" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="E4" t="n">
-        <v>175000</v>
+        <v>155000</v>
       </c>
       <c r="F4" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1576</v>
+        <v>2000</v>
       </c>
       <c r="D5" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="E5" t="n">
-        <v>165000</v>
+        <v>125000</v>
       </c>
       <c r="F5" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="G5" t="n">
-        <v>204.88</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1291</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="E6" t="n">
-        <v>170000</v>
+        <v>125000</v>
       </c>
       <c r="F6" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="G6" t="n">
-        <v>180.74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>250000</v>
@@ -612,7 +612,7 @@
         <v>350000</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E8" t="n">
         <v>150000</v>
       </c>
-      <c r="E8" t="n">
-        <v>175000</v>
-      </c>
       <c r="F8" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="9">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="D9" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F9" t="n">
         <v>100000</v>
       </c>
-      <c r="E9" t="n">
-        <v>125000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>150000</v>
-      </c>
       <c r="G9" t="n">
-        <v>9.699999999999999</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="10">
@@ -675,19 +675,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>47500</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="11">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1247</v>
+        <v>2000</v>
       </c>
       <c r="D12" t="n">
-        <v>100000</v>
+        <v>62720</v>
       </c>
       <c r="E12" t="n">
-        <v>125000</v>
+        <v>81280</v>
       </c>
       <c r="F12" t="n">
-        <v>150000</v>
+        <v>99840</v>
       </c>
       <c r="G12" t="n">
-        <v>124.7</v>
+        <v>125.44</v>
       </c>
     </row>
     <row r="13">
@@ -750,19 +750,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="D13" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="E13" t="n">
-        <v>220000</v>
+        <v>215000</v>
       </c>
       <c r="F13" t="n">
         <v>250000</v>
       </c>
       <c r="G13" t="n">
-        <v>39.14</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="14">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>2000</v>
       </c>
       <c r="D15" t="n">
+        <v>149000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>174500</v>
+      </c>
+      <c r="F15" t="n">
         <v>200000</v>
       </c>
-      <c r="E15" t="n">
-        <v>240000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>280000</v>
-      </c>
       <c r="G15" t="n">
-        <v>400</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16">
@@ -828,16 +828,16 @@
         <v>2000</v>
       </c>
       <c r="D16" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="E16" t="n">
-        <v>170000</v>
+        <v>115000</v>
       </c>
       <c r="F16" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="G16" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>744</v>
+        <v>1331</v>
       </c>
       <c r="D17" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="E17" t="n">
-        <v>246790</v>
+        <v>185000</v>
       </c>
       <c r="F17" t="n">
-        <v>293580</v>
+        <v>220000</v>
       </c>
       <c r="G17" t="n">
-        <v>148.8</v>
+        <v>199.65</v>
       </c>
     </row>
     <row r="18">
@@ -875,19 +875,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>120000</v>
+        <v>92500</v>
       </c>
       <c r="E18" t="n">
-        <v>130000</v>
+        <v>102500</v>
       </c>
       <c r="F18" t="n">
-        <v>140000</v>
+        <v>112500</v>
       </c>
       <c r="G18" t="n">
-        <v>0.72</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D19" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="E19" t="n">
-        <v>168864</v>
+        <v>77500</v>
       </c>
       <c r="F19" t="n">
-        <v>237728</v>
+        <v>95000</v>
       </c>
       <c r="G19" t="n">
-        <v>8.799999999999999</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="20">
@@ -925,19 +925,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>209</v>
+        <v>576</v>
       </c>
       <c r="D20" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="E20" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="F20" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="G20" t="n">
-        <v>20.9</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="21">
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D21" t="n">
-        <v>150000</v>
+        <v>134290</v>
       </c>
       <c r="E21" t="n">
-        <v>180000</v>
+        <v>167145</v>
       </c>
       <c r="F21" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="G21" t="n">
-        <v>15.45</v>
+        <v>29.14093</v>
       </c>
     </row>
     <row r="22">
@@ -975,19 +975,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D22" t="n">
-        <v>200000</v>
+        <v>165000</v>
       </c>
       <c r="E22" t="n">
-        <v>235000</v>
+        <v>207500</v>
       </c>
       <c r="F22" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="23">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D23" t="n">
-        <v>222870</v>
+        <v>160000</v>
       </c>
       <c r="E23" t="n">
-        <v>261435</v>
+        <v>200000</v>
       </c>
       <c r="F23" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="G23" t="n">
-        <v>11.36637</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="24">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="D24" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="E24" t="n">
-        <v>140000</v>
+        <v>105000</v>
       </c>
       <c r="F24" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="G24" t="n">
-        <v>19.8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1050,19 +1050,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1481</v>
+        <v>2000</v>
       </c>
       <c r="D25" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E25" t="n">
         <v>120000</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>150000</v>
       </c>
-      <c r="F25" t="n">
-        <v>180000</v>
-      </c>
       <c r="G25" t="n">
-        <v>177.72</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
@@ -1078,16 +1078,16 @@
         <v>2000</v>
       </c>
       <c r="D26" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="E26" t="n">
-        <v>170000</v>
+        <v>105000</v>
       </c>
       <c r="F26" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="G26" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>212</v>
+        <v>571</v>
       </c>
       <c r="D27" t="n">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="E27" t="n">
-        <v>130000</v>
+        <v>115000</v>
       </c>
       <c r="F27" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="G27" t="n">
-        <v>23.32</v>
+        <v>51.39</v>
       </c>
     </row>
     <row r="28">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="D28" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="E28" t="n">
-        <v>195000</v>
+        <v>140000</v>
       </c>
       <c r="F28" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="G28" t="n">
-        <v>28.65</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="29">
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="D29" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="E29" t="n">
-        <v>245000</v>
+        <v>215000</v>
       </c>
       <c r="F29" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="30">
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>302</v>
+        <v>480</v>
       </c>
       <c r="D30" t="n">
-        <v>236262</v>
+        <v>200000</v>
       </c>
       <c r="E30" t="n">
-        <v>258131</v>
+        <v>240000</v>
       </c>
       <c r="F30" t="n">
         <v>280000</v>
       </c>
       <c r="G30" t="n">
-        <v>71.351124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -1200,19 +1200,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1125</v>
+        <v>2000</v>
       </c>
       <c r="D31" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F31" t="n">
         <v>100000</v>
       </c>
-      <c r="E31" t="n">
-        <v>128750</v>
-      </c>
-      <c r="F31" t="n">
-        <v>157500</v>
-      </c>
       <c r="G31" t="n">
-        <v>112.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -1228,16 +1228,16 @@
         <v>2000</v>
       </c>
       <c r="D32" t="n">
-        <v>150000</v>
+        <v>87000</v>
       </c>
       <c r="E32" t="n">
-        <v>181500</v>
+        <v>108500</v>
       </c>
       <c r="F32" t="n">
-        <v>213000</v>
+        <v>130000</v>
       </c>
       <c r="G32" t="n">
-        <v>300</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -1250,19 +1250,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>435</v>
+        <v>911</v>
       </c>
       <c r="D33" t="n">
-        <v>182862</v>
+        <v>140000</v>
       </c>
       <c r="E33" t="n">
-        <v>216431</v>
+        <v>170000</v>
       </c>
       <c r="F33" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="G33" t="n">
-        <v>79.54496999999999</v>
+        <v>127.54</v>
       </c>
     </row>
     <row r="34">
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1173</v>
+        <v>2000</v>
       </c>
       <c r="D34" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="E34" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="F34" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="G34" t="n">
-        <v>187.68</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="D35" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="E35" t="n">
-        <v>157500</v>
+        <v>167500</v>
       </c>
       <c r="F35" t="n">
-        <v>195000</v>
+        <v>200000</v>
       </c>
       <c r="G35" t="n">
-        <v>11.28</v>
+        <v>34.02</v>
       </c>
     </row>
   </sheetData>
